--- a/tut05/output/0501EE23.xlsx
+++ b/tut05/output/0501EE23.xlsx
@@ -550,28 +550,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.020408163265306</v>
+        <v>7.02</v>
       </c>
       <c r="C6" t="n">
-        <v>6.340909090909091</v>
+        <v>6.34</v>
       </c>
       <c r="D6" t="n">
-        <v>7.065217391304348</v>
+        <v>7.07</v>
       </c>
       <c r="E6" t="n">
-        <v>5.891304347826087</v>
+        <v>5.89</v>
       </c>
       <c r="F6" t="n">
         <v>6</v>
       </c>
       <c r="G6" t="n">
-        <v>6.025</v>
+        <v>6.03</v>
       </c>
       <c r="H6" t="n">
-        <v>6.302325581395348</v>
+        <v>6.3</v>
       </c>
       <c r="I6" t="n">
-        <v>4.947368421052632</v>
+        <v>4.95</v>
       </c>
     </row>
     <row r="7">
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.020408163265306</v>
+        <v>7.02</v>
       </c>
       <c r="C8" t="n">
-        <v>6.698924731182796</v>
+        <v>6.7</v>
       </c>
       <c r="D8" t="n">
-        <v>6.820143884892087</v>
+        <v>6.82</v>
       </c>
       <c r="E8" t="n">
-        <v>6.589189189189189</v>
+        <v>6.59</v>
       </c>
       <c r="F8" t="n">
-        <v>6.486607142857143</v>
+        <v>6.49</v>
       </c>
       <c r="G8" t="n">
-        <v>6.416666666666667</v>
+        <v>6.42</v>
       </c>
       <c r="H8" t="n">
-        <v>6.400651465798045</v>
+        <v>6.4</v>
       </c>
       <c r="I8" t="n">
-        <v>6.240579710144927</v>
+        <v>6.24</v>
       </c>
     </row>
   </sheetData>
